--- a/data/titles.xlsx
+++ b/data/titles.xlsx
@@ -397,12 +397,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -412,57 +412,107 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Solo Leveling</v>
+        <v>Under the Oak Tree</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Tower of God</v>
+        <v>The Duke's Fluffy Secret</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>The Beginning After the End</v>
+        <v>Degenerate</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Omniscient Reader</v>
+        <v>A Wicked Husband</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Eleceed</v>
+        <v>Devoured: The Serpent and the Pomegranate</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Lookism</v>
+        <v>My Master Doesn't Bite!</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>True Beauty</v>
+        <v>Don't Tell My Brother!</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Sweet Home</v>
+        <v>Guilty Office</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Noblesse</v>
+        <v>How About a Cosmic Horror?</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>UnOrdinary</v>
+        <v>Predatory Marriage</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>The Beast Within</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>From Sandbox to Bed</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Dangerous</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Prison Love</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Betrayal of Dignity</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>F My Ex</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Tempest Night</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>High Society</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Her Merry Obsession</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Violet Romance</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A21"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/titles.xlsx
+++ b/data/titles.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,107 +412,57 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Under the Oak Tree</v>
+        <v>The Beast Within</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>The Duke's Fluffy Secret</v>
+        <v>From Sandbox to Bed</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Degenerate</v>
+        <v>Dangerous</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>A Wicked Husband</v>
+        <v>Prison Love</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Devoured: The Serpent and the Pomegranate</v>
+        <v>Betrayal of Dignity</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>My Master Doesn't Bite!</v>
+        <v>F My Ex</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Don't Tell My Brother!</v>
+        <v>Tempest Night</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Guilty Office</v>
+        <v>High Society</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>How About a Cosmic Horror?</v>
+        <v>Her Merry Obsession</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Predatory Marriage</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>The Beast Within</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>From Sandbox to Bed</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Dangerous</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Prison Love</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>Betrayal of Dignity</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>F My Ex</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>Tempest Night</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>High Society</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>Her Merry Obsession</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
         <v>Violet Romance</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/titles.xlsx
+++ b/data/titles.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,57 +412,107 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>The Beast Within</v>
+        <v>Under the Oak Tree</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>From Sandbox to Bed</v>
+        <v>The Duke's Fluffy Secret</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Dangerous</v>
+        <v>Degenerate</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Prison Love</v>
+        <v>A Wicked Husband</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Betrayal of Dignity</v>
+        <v>Devoured: The Serpent and the Pomegranate</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>F My Ex</v>
+        <v>My Master Doesn't Bite!</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Tempest Night</v>
+        <v>Don't Tell My Brother!</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>High Society</v>
+        <v>Guilty Office</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Her Merry Obsession</v>
+        <v>How About a Cosmic Horror?</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>Predatory Marriage</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>The Beast Within</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>From Sandbox to Bed</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Dangerous</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Prison Love</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Betrayal of Dignity</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>F My Ex</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Tempest Night</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>High Society</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Her Merry Obsession</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
         <v>Violet Romance</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A21"/>
   </ignoredErrors>
 </worksheet>
 </file>